--- a/sg02/Assets/Resources/Config/Excel/Magic.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Magic.xlsx
@@ -1736,8 +1736,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2113,10 +2114,13 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="24.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -2215,7 +2219,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2247,7 +2251,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2279,7 +2283,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -2308,7 +2312,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2340,7 +2344,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -2372,7 +2376,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -2401,7 +2405,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -2433,7 +2437,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -2462,7 +2466,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -5557,5 +5561,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sg02/Assets/Resources/Config/Excel/Magic.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Magic.xlsx
@@ -1228,10 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰柱群锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰柱刺,L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1693,6 +1689,10 @@
   </si>
   <si>
     <t>将军组合计,L4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰柱群峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4509,7 +4509,7 @@
         <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="C79">
         <v>34</v>
@@ -4527,7 +4527,7 @@
         <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J79" t="s">
         <v>121</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" t="s">
         <v>305</v>
-      </c>
-      <c r="B80" t="s">
-        <v>306</v>
       </c>
       <c r="C80">
         <v>35</v>
@@ -4556,7 +4556,7 @@
         <v>218</v>
       </c>
       <c r="I80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J80" t="s">
         <v>121</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" t="s">
         <v>308</v>
-      </c>
-      <c r="B81" t="s">
-        <v>309</v>
       </c>
       <c r="C81">
         <v>36</v>
@@ -4585,7 +4585,7 @@
         <v>119</v>
       </c>
       <c r="I81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J81" t="s">
         <v>121</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" t="s">
         <v>311</v>
-      </c>
-      <c r="B82" t="s">
-        <v>312</v>
       </c>
       <c r="C82">
         <v>36</v>
@@ -4614,7 +4614,7 @@
         <v>119</v>
       </c>
       <c r="I82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J82" t="s">
         <v>121</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" t="s">
         <v>314</v>
-      </c>
-      <c r="B83" t="s">
-        <v>315</v>
       </c>
       <c r="C83">
         <v>37</v>
@@ -4643,7 +4643,7 @@
         <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J83" t="s">
         <v>121</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s">
         <v>317</v>
-      </c>
-      <c r="B84" t="s">
-        <v>318</v>
       </c>
       <c r="C84">
         <v>37</v>
@@ -4672,10 +4672,10 @@
         <v>138</v>
       </c>
       <c r="H84" t="s">
+        <v>318</v>
+      </c>
+      <c r="I84" t="s">
         <v>319</v>
-      </c>
-      <c r="I84" t="s">
-        <v>320</v>
       </c>
       <c r="J84" t="s">
         <v>140</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" t="s">
         <v>321</v>
-      </c>
-      <c r="B85" t="s">
-        <v>322</v>
       </c>
       <c r="C85">
         <v>38</v>
@@ -4704,10 +4704,10 @@
         <v>264</v>
       </c>
       <c r="H85" t="s">
+        <v>322</v>
+      </c>
+      <c r="I85" t="s">
         <v>323</v>
-      </c>
-      <c r="I85" t="s">
-        <v>324</v>
       </c>
       <c r="J85" t="s">
         <v>127</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>324</v>
+      </c>
+      <c r="B86" t="s">
         <v>325</v>
-      </c>
-      <c r="B86" t="s">
-        <v>326</v>
       </c>
       <c r="C86">
         <v>38</v>
@@ -4736,10 +4736,10 @@
         <v>190</v>
       </c>
       <c r="H86" t="s">
+        <v>326</v>
+      </c>
+      <c r="I86" t="s">
         <v>327</v>
-      </c>
-      <c r="I86" t="s">
-        <v>328</v>
       </c>
       <c r="J86" t="s">
         <v>121</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87" t="s">
         <v>329</v>
-      </c>
-      <c r="B87" t="s">
-        <v>330</v>
       </c>
       <c r="C87">
         <v>38</v>
@@ -4768,10 +4768,10 @@
         <v>119</v>
       </c>
       <c r="H87" t="s">
+        <v>330</v>
+      </c>
+      <c r="I87" t="s">
         <v>331</v>
-      </c>
-      <c r="I87" t="s">
-        <v>332</v>
       </c>
       <c r="J87" t="s">
         <v>121</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" t="s">
         <v>333</v>
-      </c>
-      <c r="B88" t="s">
-        <v>334</v>
       </c>
       <c r="C88">
         <v>38</v>
@@ -4800,7 +4800,7 @@
         <v>190</v>
       </c>
       <c r="I88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J88" t="s">
         <v>121</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" t="s">
         <v>336</v>
-      </c>
-      <c r="B89" t="s">
-        <v>337</v>
       </c>
       <c r="C89">
         <v>39</v>
@@ -4829,7 +4829,7 @@
         <v>119</v>
       </c>
       <c r="I89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J89" t="s">
         <v>121</v>
@@ -4837,10 +4837,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" t="s">
         <v>339</v>
-      </c>
-      <c r="B90" t="s">
-        <v>340</v>
       </c>
       <c r="C90">
         <v>39</v>
@@ -4858,10 +4858,10 @@
         <v>119</v>
       </c>
       <c r="H90" t="s">
+        <v>340</v>
+      </c>
+      <c r="I90" t="s">
         <v>341</v>
-      </c>
-      <c r="I90" t="s">
-        <v>342</v>
       </c>
       <c r="J90" t="s">
         <v>121</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" t="s">
         <v>343</v>
-      </c>
-      <c r="B91" t="s">
-        <v>344</v>
       </c>
       <c r="C91">
         <v>40</v>
@@ -4887,10 +4887,10 @@
         <v>592</v>
       </c>
       <c r="G91" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" t="s">
         <v>345</v>
-      </c>
-      <c r="I91" t="s">
-        <v>346</v>
       </c>
       <c r="J91" t="s">
         <v>121</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>346</v>
+      </c>
+      <c r="B92" t="s">
         <v>347</v>
-      </c>
-      <c r="B92" t="s">
-        <v>348</v>
       </c>
       <c r="C92">
         <v>40</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>348</v>
+      </c>
+      <c r="B93" t="s">
         <v>349</v>
-      </c>
-      <c r="B93" t="s">
-        <v>350</v>
       </c>
       <c r="C93">
         <v>40</v>
@@ -4948,7 +4948,7 @@
         <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J93" t="s">
         <v>121</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>351</v>
+      </c>
+      <c r="B94" t="s">
         <v>352</v>
-      </c>
-      <c r="B94" t="s">
-        <v>353</v>
       </c>
       <c r="C94">
         <v>41</v>
@@ -4977,10 +4977,10 @@
         <v>119</v>
       </c>
       <c r="H94" t="s">
+        <v>353</v>
+      </c>
+      <c r="I94" t="s">
         <v>354</v>
-      </c>
-      <c r="I94" t="s">
-        <v>355</v>
       </c>
       <c r="J94" t="s">
         <v>121</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>355</v>
+      </c>
+      <c r="B95" t="s">
         <v>356</v>
-      </c>
-      <c r="B95" t="s">
-        <v>357</v>
       </c>
       <c r="C95">
         <v>42</v>
@@ -5009,7 +5009,7 @@
         <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J95" t="s">
         <v>121</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
+        <v>358</v>
+      </c>
+      <c r="B96" t="s">
         <v>359</v>
-      </c>
-      <c r="B96" t="s">
-        <v>360</v>
       </c>
       <c r="C96">
         <v>42</v>
@@ -5038,7 +5038,7 @@
         <v>119</v>
       </c>
       <c r="I96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J96" t="s">
         <v>121</v>
@@ -5046,10 +5046,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
+        <v>361</v>
+      </c>
+      <c r="B97" t="s">
         <v>362</v>
-      </c>
-      <c r="B97" t="s">
-        <v>363</v>
       </c>
       <c r="C97">
         <v>43</v>
@@ -5067,7 +5067,7 @@
         <v>119</v>
       </c>
       <c r="I97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J97" t="s">
         <v>121</v>
@@ -5075,10 +5075,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" t="s">
         <v>365</v>
-      </c>
-      <c r="B98" t="s">
-        <v>366</v>
       </c>
       <c r="C98">
         <v>44</v>
@@ -5096,7 +5096,7 @@
         <v>119</v>
       </c>
       <c r="I98" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J98" t="s">
         <v>121</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>367</v>
+      </c>
+      <c r="B99" t="s">
         <v>368</v>
-      </c>
-      <c r="B99" t="s">
-        <v>369</v>
       </c>
       <c r="C99">
         <v>44</v>
@@ -5125,10 +5125,10 @@
         <v>190</v>
       </c>
       <c r="H99" t="s">
+        <v>369</v>
+      </c>
+      <c r="I99" t="s">
         <v>370</v>
-      </c>
-      <c r="I99" t="s">
-        <v>371</v>
       </c>
       <c r="J99" t="s">
         <v>121</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" t="s">
         <v>372</v>
-      </c>
-      <c r="B100" t="s">
-        <v>373</v>
       </c>
       <c r="C100">
         <v>44</v>
@@ -5157,7 +5157,7 @@
         <v>119</v>
       </c>
       <c r="I100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J100" t="s">
         <v>121</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" t="s">
         <v>375</v>
-      </c>
-      <c r="B101" t="s">
-        <v>376</v>
       </c>
       <c r="C101">
         <v>45</v>
@@ -5186,10 +5186,10 @@
         <v>119</v>
       </c>
       <c r="H101" t="s">
+        <v>376</v>
+      </c>
+      <c r="I101" t="s">
         <v>377</v>
-      </c>
-      <c r="I101" t="s">
-        <v>378</v>
       </c>
       <c r="J101" t="s">
         <v>121</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>378</v>
+      </c>
+      <c r="B102" t="s">
         <v>379</v>
-      </c>
-      <c r="B102" t="s">
-        <v>380</v>
       </c>
       <c r="C102">
         <v>45</v>
@@ -5218,7 +5218,7 @@
         <v>119</v>
       </c>
       <c r="I102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J102" t="s">
         <v>121</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>381</v>
+      </c>
+      <c r="B103" t="s">
         <v>382</v>
-      </c>
-      <c r="B103" t="s">
-        <v>383</v>
       </c>
       <c r="C103">
         <v>46</v>
@@ -5247,10 +5247,10 @@
         <v>124</v>
       </c>
       <c r="H103" t="s">
+        <v>383</v>
+      </c>
+      <c r="I103" t="s">
         <v>384</v>
-      </c>
-      <c r="I103" t="s">
-        <v>385</v>
       </c>
       <c r="J103" t="s">
         <v>211</v>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
+        <v>385</v>
+      </c>
+      <c r="B104" t="s">
         <v>386</v>
-      </c>
-      <c r="B104" t="s">
-        <v>387</v>
       </c>
       <c r="C104">
         <v>46</v>
@@ -5279,7 +5279,7 @@
         <v>124</v>
       </c>
       <c r="I104" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J104" t="s">
         <v>127</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" t="s">
         <v>389</v>
-      </c>
-      <c r="B105" t="s">
-        <v>390</v>
       </c>
       <c r="C105">
         <v>47</v>
@@ -5308,7 +5308,7 @@
         <v>119</v>
       </c>
       <c r="I105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J105" t="s">
         <v>121</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>391</v>
+      </c>
+      <c r="B106" t="s">
         <v>392</v>
-      </c>
-      <c r="B106" t="s">
-        <v>393</v>
       </c>
       <c r="C106">
         <v>47</v>
@@ -5337,7 +5337,7 @@
         <v>218</v>
       </c>
       <c r="I106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J106" t="s">
         <v>121</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107" t="s">
         <v>394</v>
-      </c>
-      <c r="B107" t="s">
-        <v>395</v>
       </c>
       <c r="C107">
         <v>47</v>
@@ -5363,13 +5363,13 @@
         <v>605</v>
       </c>
       <c r="G107" t="s">
+        <v>395</v>
+      </c>
+      <c r="H107" t="s">
         <v>396</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>397</v>
-      </c>
-      <c r="I107" t="s">
-        <v>398</v>
       </c>
       <c r="J107" t="s">
         <v>176</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
+        <v>398</v>
+      </c>
+      <c r="B108" t="s">
         <v>399</v>
-      </c>
-      <c r="B108" t="s">
-        <v>400</v>
       </c>
       <c r="C108">
         <v>48</v>
@@ -5398,10 +5398,10 @@
         <v>119</v>
       </c>
       <c r="H108" t="s">
+        <v>400</v>
+      </c>
+      <c r="I108" t="s">
         <v>401</v>
-      </c>
-      <c r="I108" t="s">
-        <v>402</v>
       </c>
       <c r="J108" t="s">
         <v>121</v>
@@ -5409,10 +5409,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>402</v>
+      </c>
+      <c r="B109" t="s">
         <v>403</v>
-      </c>
-      <c r="B109" t="s">
-        <v>404</v>
       </c>
       <c r="C109">
         <v>48</v>
@@ -5430,7 +5430,7 @@
         <v>119</v>
       </c>
       <c r="I109" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J109" t="s">
         <v>121</v>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>405</v>
+      </c>
+      <c r="B110" t="s">
         <v>406</v>
-      </c>
-      <c r="B110" t="s">
-        <v>407</v>
       </c>
       <c r="C110">
         <v>49</v>
@@ -5456,13 +5456,13 @@
         <v>602</v>
       </c>
       <c r="G110" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H110" t="s">
+        <v>407</v>
+      </c>
+      <c r="I110" t="s">
         <v>408</v>
-      </c>
-      <c r="I110" t="s">
-        <v>409</v>
       </c>
       <c r="J110" t="s">
         <v>121</v>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>409</v>
+      </c>
+      <c r="B111" t="s">
         <v>410</v>
-      </c>
-      <c r="B111" t="s">
-        <v>411</v>
       </c>
       <c r="C111">
         <v>49</v>
@@ -5491,7 +5491,7 @@
         <v>119</v>
       </c>
       <c r="I111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J111" t="s">
         <v>121</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" t="s">
         <v>413</v>
-      </c>
-      <c r="B112" t="s">
-        <v>414</v>
       </c>
       <c r="C112">
         <v>49</v>
@@ -5517,10 +5517,10 @@
         <v>609</v>
       </c>
       <c r="G112" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J112" t="s">
         <v>121</v>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>415</v>
+      </c>
+      <c r="B113" t="s">
         <v>416</v>
-      </c>
-      <c r="B113" t="s">
-        <v>417</v>
       </c>
       <c r="C113">
         <v>50</v>
@@ -5549,10 +5549,10 @@
         <v>119</v>
       </c>
       <c r="H113" t="s">
+        <v>417</v>
+      </c>
+      <c r="I113" t="s">
         <v>418</v>
-      </c>
-      <c r="I113" t="s">
-        <v>419</v>
       </c>
       <c r="J113" t="s">
         <v>121</v>
